--- a/public/uploads/imports/123.xlsx
+++ b/public/uploads/imports/123.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Server\OpenServer-5-4-3\OSPanel\domains\agromaster-info\public\uploads\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\agromaster-info\public\uploads\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2D4F3-C9BC-4B56-B9F1-D327108A667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144B10AF-D567-428D-80CF-DD60EBADC49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="914">
   <si>
     <t>?</t>
   </si>
@@ -2791,7 +2791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2848,13 +2848,6 @@
       <family val="1"/>
       <charset val="204"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2985,7 +2978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3066,6 +3059,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Відсотковий" xfId="1" builtinId="5"/>
@@ -3350,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CA004F-5783-416C-9B73-E7EA20B1428E}">
   <dimension ref="A1:Q790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A735" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E793" sqref="E793"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,18 +3402,18 @@
       </c>
       <c r="N1" s="33">
         <f>COUNTIF($I:$I,"?")</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O1" s="34">
         <f>N1/L1</f>
-        <v>0.14736842105263157</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q1" s="32">
         <f>COUNTIF($J:$J,"А")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4329,10 +4323,13 @@
         <v>715</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>799</v>
+        <v>2</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="J35" s="16" t="s">
+      <c r="I35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11695,9 +11692,15 @@
         <v>715</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>799</v>
+        <v>2</v>
       </c>
       <c r="H303" s="15"/>
+      <c r="I303" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J303" s="40" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
@@ -18248,7 +18251,7 @@
         <v>715</v>
       </c>
       <c r="G548" s="19" t="s">
-        <v>799</v>
+        <v>2</v>
       </c>
       <c r="H548" s="15"/>
       <c r="I548" s="6"/>
